--- a/아리샤 애니리스트.xlsx
+++ b/아리샤 애니리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Teleport</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>RunSprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoomSayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoomSayerCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuinBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageFront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -518,12 +538,37 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/아리샤 애니리스트.xlsx
+++ b/아리샤 애니리스트.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>Teleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SharpenMana01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>DamageBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffusionShift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -458,117 +458,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
